--- a/schedule_Edreg.xlsx
+++ b/schedule_Edreg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\使用者\Desktop\高國鈞\NCU_python\Project\EdReg_0412\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\使用者\Desktop\高國鈞\Github\Project_EdReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38FE173-9020-4074-BE42-43D94FBF3112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79EE33-816A-4A85-96C7-A0A268569A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{349B18BF-DA2C-4AD6-9CC8-FAB259AD76CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{349B18BF-DA2C-4AD6-9CC8-FAB259AD76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -414,11 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FAEC94-8F54-4647-B340-8550100A41CD}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A20" si="0">A4 + TIME(0, 15, 0)</f>
+        <f t="shared" ref="A5:A53" si="0">A4 + TIME(0, 15, 0)</f>
         <v>0.36458333333333337</v>
       </c>
       <c r="B5" s="1">
@@ -602,6 +602,288 @@
       </c>
       <c r="B20" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53125000000000011</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59374999999999989</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60416666666666652</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.61458333333333315</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62499999999999978</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63541666666666641</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65624999999999967</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6666666666666663</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67708333333333293</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68749999999999956</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69791666666666619</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333282</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71874999999999944</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72916666666666607</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7395833333333327</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999933</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666596</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333259</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78124999999999922</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666585</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80208333333333248</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81249999999999911</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82291666666666574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.843749999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85416666666666563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86458333333333226</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_Edreg.xlsx
+++ b/schedule_Edreg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\使用者\Desktop\高國鈞\Github\Project_EdReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79EE33-816A-4A85-96C7-A0A268569A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933438AD-1644-43AE-8ED0-FBB1F9E634E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{349B18BF-DA2C-4AD6-9CC8-FAB259AD76CA}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{349B18BF-DA2C-4AD6-9CC8-FAB259AD76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -417,8 +417,8 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>0.5625</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/schedule_Edreg.xlsx
+++ b/schedule_Edreg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\使用者\Desktop\高國鈞\Github\Project_EdReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933438AD-1644-43AE-8ED0-FBB1F9E634E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AEA4D-B69E-4D00-A93C-C2A3C6441DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{349B18BF-DA2C-4AD6-9CC8-FAB259AD76CA}"/>
   </bookViews>
@@ -417,8 +417,8 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>0.60416666666666652</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>0.68749999999999956</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
